--- a/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>230134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>218521</v>
+        <v>218629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235068</v>
+        <v>235267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9572947649614866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9089907195684895</v>
+        <v>0.9094366895691509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9778209448543376</v>
+        <v>0.9786476030095744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>332</v>
@@ -762,19 +762,19 @@
         <v>206203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195320</v>
+        <v>193794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217414</v>
+        <v>216121</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7688935501258036</v>
+        <v>0.7688935501258035</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7283125052120274</v>
+        <v>0.7226253990618318</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8106990053766001</v>
+        <v>0.8058762495633601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>551</v>
@@ -783,19 +783,19 @@
         <v>436336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>420743</v>
+        <v>421124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>448363</v>
+        <v>449825</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8579485208536892</v>
+        <v>0.8579485208536894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8272871334744093</v>
+        <v>0.8280377920055876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8815956297662413</v>
+        <v>0.884470970839894</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10266</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5332</v>
+        <v>5133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21879</v>
+        <v>21771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04270523503851339</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02217905514566244</v>
+        <v>0.0213523969904255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09100928043151019</v>
+        <v>0.09056331043084943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -833,19 +833,19 @@
         <v>61978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50767</v>
+        <v>52060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72861</v>
+        <v>74387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2311064498741964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1893009946233999</v>
+        <v>0.1941237504366393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2716874947879726</v>
+        <v>0.277374600938168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -854,19 +854,19 @@
         <v>72245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60218</v>
+        <v>58756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87838</v>
+        <v>87457</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1420514791463107</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1184043702337586</v>
+        <v>0.115529029160106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1727128665255904</v>
+        <v>0.1719622079944126</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>291882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270414</v>
+        <v>271755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306131</v>
+        <v>306516</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8951546655532948</v>
+        <v>0.895154665553295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8293139852299731</v>
+        <v>0.8334268275752343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9388520307780014</v>
+        <v>0.9400334201160225</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>322</v>
@@ -979,19 +979,19 @@
         <v>277239</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>262545</v>
+        <v>261908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>292024</v>
+        <v>291259</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7226494616681765</v>
+        <v>0.7226494616681766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6843502030516461</v>
+        <v>0.68268797491417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7611897173177238</v>
+        <v>0.7591945014451575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>507</v>
@@ -1000,19 +1000,19 @@
         <v>569121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>544460</v>
+        <v>543821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>591411</v>
+        <v>589379</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8019050755361912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7671580051446463</v>
+        <v>0.7662572643088637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8333130636777545</v>
+        <v>0.8304496314416183</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>34187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19938</v>
+        <v>19553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55655</v>
+        <v>54314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1048453344467052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06114796922199866</v>
+        <v>0.05996657988397738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1706860147700263</v>
+        <v>0.1665731724247655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>161</v>
@@ -1050,19 +1050,19 @@
         <v>106403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91618</v>
+        <v>92383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>121097</v>
+        <v>121734</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2773505383318236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2388102826822762</v>
+        <v>0.2408054985548423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.315649796948354</v>
+        <v>0.3173120250858298</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -1071,19 +1071,19 @@
         <v>140590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>118300</v>
+        <v>120332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>165251</v>
+        <v>165890</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1980949244638089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1666869363222456</v>
+        <v>0.1695503685583818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2328419948553537</v>
+        <v>0.2337427356911363</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>182538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172978</v>
+        <v>172040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>187922</v>
+        <v>187809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9418894405213881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8925604433637352</v>
+        <v>0.8877206088300194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9696696384209502</v>
+        <v>0.969088073156129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -1196,19 +1196,19 @@
         <v>181953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171554</v>
+        <v>169667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193048</v>
+        <v>192955</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7247051380818227</v>
+        <v>0.7247051380818228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.68328650552764</v>
+        <v>0.6757705255549123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7688939457560503</v>
+        <v>0.768524092392039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>419</v>
@@ -1217,19 +1217,19 @@
         <v>364491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350324</v>
+        <v>350038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378072</v>
+        <v>378495</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8193174145776845</v>
+        <v>0.8193174145776846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7874706574547771</v>
+        <v>0.7868295889139462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8498435827350538</v>
+        <v>0.850794415484097</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>11262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5878</v>
+        <v>5991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20822</v>
+        <v>21760</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05811055947861184</v>
+        <v>0.05811055947861186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03033036157904988</v>
+        <v>0.03091192684387126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.107439556636265</v>
+        <v>0.1122793911699807</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -1267,19 +1267,19 @@
         <v>69119</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58024</v>
+        <v>58117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79518</v>
+        <v>81405</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2752948619181771</v>
+        <v>0.2752948619181772</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2311060542439496</v>
+        <v>0.2314759076079609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3167134944723599</v>
+        <v>0.3242294744450875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>125</v>
@@ -1288,19 +1288,19 @@
         <v>80381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>66800</v>
+        <v>66377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94548</v>
+        <v>94834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1806825854223154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1501564172649462</v>
+        <v>0.149205584515903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2125293425452228</v>
+        <v>0.2131704110860537</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>227156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212185</v>
+        <v>212631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235450</v>
+        <v>236193</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9271300265153425</v>
+        <v>0.9271300265153423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.866024146914813</v>
+        <v>0.8678482444294284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9609811666273683</v>
+        <v>0.9640135017711233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -1413,19 +1413,19 @@
         <v>243904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228927</v>
+        <v>228985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257133</v>
+        <v>258132</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7469553494615555</v>
+        <v>0.7469553494615556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7010872387709961</v>
+        <v>0.7012649576241556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7874694496210867</v>
+        <v>0.7905288223440742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>398</v>
@@ -1434,19 +1434,19 @@
         <v>471060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>450375</v>
+        <v>450058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>488098</v>
+        <v>487072</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8241930806992014</v>
+        <v>0.8241930806992013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7880017091277918</v>
+        <v>0.787446292894167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8540034915653006</v>
+        <v>0.8522084005791063</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>17854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9560</v>
+        <v>8817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32825</v>
+        <v>32379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07286997348465765</v>
+        <v>0.07286997348465764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03901883337263176</v>
+        <v>0.03598649822887685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.133975853085187</v>
+        <v>0.1321517555705715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -1484,19 +1484,19 @@
         <v>82627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69398</v>
+        <v>68399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97604</v>
+        <v>97546</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2530446505384446</v>
+        <v>0.2530446505384445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2125305503789132</v>
+        <v>0.2094711776559257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2989127612290041</v>
+        <v>0.2987350423758443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -1505,19 +1505,19 @@
         <v>100481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83443</v>
+        <v>84469</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121166</v>
+        <v>121483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1758069193007988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1459965084346994</v>
+        <v>0.1477915994208935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2119982908722082</v>
+        <v>0.2125537071058329</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>149781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145100</v>
+        <v>145196</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152091</v>
+        <v>152055</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9742556049770249</v>
+        <v>0.9742556049770251</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9438047237968814</v>
+        <v>0.9444327338408725</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9892825481083851</v>
+        <v>0.989047050614561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>279</v>
@@ -1630,19 +1630,19 @@
         <v>141062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134340</v>
+        <v>133284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147642</v>
+        <v>147117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8085846676247015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7700570029878644</v>
+        <v>0.7640033457144637</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8463063137263381</v>
+        <v>0.8432962678532331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>461</v>
@@ -1651,19 +1651,19 @@
         <v>290843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>283173</v>
+        <v>281541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>298058</v>
+        <v>297609</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8861916091544481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8628214115496483</v>
+        <v>0.8578499045855232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9081753421696982</v>
+        <v>0.9068095474895173</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1648</v>
+        <v>1684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8639</v>
+        <v>8543</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02574439502297484</v>
+        <v>0.02574439502297485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01071745189161498</v>
+        <v>0.01095294938543899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0561952762031195</v>
+        <v>0.05556726615912778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -1701,19 +1701,19 @@
         <v>33393</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26813</v>
+        <v>27338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40115</v>
+        <v>41171</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1914153323752986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1536936862736619</v>
+        <v>0.1567037321467669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2299429970121355</v>
+        <v>0.2359966542855362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -1722,19 +1722,19 @@
         <v>37351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30136</v>
+        <v>30585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45021</v>
+        <v>46653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1138083908455519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09182465783030175</v>
+        <v>0.09319045251048268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1371785884503517</v>
+        <v>0.1421500954144769</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>151757</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142217</v>
+        <v>141529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157857</v>
+        <v>157668</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9145153427530921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8570261813358719</v>
+        <v>0.8528758055070622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9512747379232904</v>
+        <v>0.9501330909322595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -1847,19 +1847,19 @@
         <v>143412</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133339</v>
+        <v>133466</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151179</v>
+        <v>151947</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.750661100732297</v>
+        <v>0.7506611007322971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6979403748499196</v>
+        <v>0.6986054842224184</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7913178383660761</v>
+        <v>0.7953372429262395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -1868,19 +1868,19 @@
         <v>295168</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>282139</v>
+        <v>282972</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>305803</v>
+        <v>305917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8268269690548259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7903303023445306</v>
+        <v>0.7926620418143665</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8566171466715178</v>
+        <v>0.8569374605341101</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>14186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8086</v>
+        <v>8275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23726</v>
+        <v>24414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08548465724690799</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04872526207670966</v>
+        <v>0.04986690906774047</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1429738186641283</v>
+        <v>0.1471241944929378</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -1918,19 +1918,19 @@
         <v>47635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39868</v>
+        <v>39100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57708</v>
+        <v>57581</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2493388992677029</v>
+        <v>0.249338899267703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2086821616339239</v>
+        <v>0.2046627570737599</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3020596251500802</v>
+        <v>0.3013945157775814</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -1939,19 +1939,19 @@
         <v>61821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51186</v>
+        <v>51072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74850</v>
+        <v>74017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1731730309451742</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1433828533284821</v>
+        <v>0.1430625394658901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2096696976554694</v>
+        <v>0.2073379581856334</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>466486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>449870</v>
+        <v>448642</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476451</v>
+        <v>475189</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9628133558696558</v>
+        <v>0.962813355869656</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9285175194478057</v>
+        <v>0.9259841751633928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9833811486932179</v>
+        <v>0.9807769430320256</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>572</v>
@@ -2064,19 +2064,19 @@
         <v>488476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>470930</v>
+        <v>469830</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>504593</v>
+        <v>505161</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8417128226035502</v>
+        <v>0.84171282260355</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8114784398008683</v>
+        <v>0.8095825108703656</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8694850335582848</v>
+        <v>0.8704627980768166</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>922</v>
@@ -2085,19 +2085,19 @@
         <v>954962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>933278</v>
+        <v>931042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>973281</v>
+        <v>975454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8968137120904741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8764497267421681</v>
+        <v>0.8743496306026182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9140174734518108</v>
+        <v>0.9160579501563214</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>18017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8052</v>
+        <v>9314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>34633</v>
+        <v>35861</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03718664413034417</v>
+        <v>0.03718664413034416</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01661885130678206</v>
+        <v>0.01922305696797454</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0714824805521944</v>
+        <v>0.07401582483660721</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>115</v>
@@ -2135,19 +2135,19 @@
         <v>91860</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>75743</v>
+        <v>75175</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109406</v>
+        <v>110506</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1582871773964499</v>
+        <v>0.1582871773964498</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1305149664417155</v>
+        <v>0.1295372019231834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1885215601991317</v>
+        <v>0.1904174891296346</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>124</v>
@@ -2156,19 +2156,19 @@
         <v>109877</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>91558</v>
+        <v>89385</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>131561</v>
+        <v>133797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.103186287909526</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.085982526548189</v>
+        <v>0.08394204984367877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1235502732578318</v>
+        <v>0.1256503693973818</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>518138</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>504388</v>
+        <v>502077</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>526017</v>
+        <v>526036</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9686118230264136</v>
+        <v>0.9686118230264135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9429090487854834</v>
+        <v>0.9385870767897579</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.983340830922756</v>
+        <v>0.9833775126786677</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>579</v>
@@ -2281,19 +2281,19 @@
         <v>504218</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>482926</v>
+        <v>482398</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>523373</v>
+        <v>522320</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7456181162397953</v>
+        <v>0.7456181162397955</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7141328562575753</v>
+        <v>0.7133515258280663</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7739448252825691</v>
+        <v>0.7723872839378683</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>998</v>
@@ -2302,19 +2302,19 @@
         <v>1022355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>997500</v>
+        <v>998670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1044936</v>
+        <v>1044514</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8441061310330933</v>
+        <v>0.8441061310330935</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8235845565031169</v>
+        <v>0.8245504431340906</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8627502969249897</v>
+        <v>0.8624011387234679</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>16790</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8911</v>
+        <v>8892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30540</v>
+        <v>32851</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0313881769735866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01665916907724395</v>
+        <v>0.01662248732133275</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05709095121451666</v>
+        <v>0.06141292321024207</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -2352,19 +2352,19 @@
         <v>172023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152868</v>
+        <v>153921</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>193315</v>
+        <v>193843</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2543818837602047</v>
+        <v>0.2543818837602046</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2260551747174309</v>
+        <v>0.2276127160621319</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2858671437424249</v>
+        <v>0.2866484741719337</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>270</v>
@@ -2373,19 +2373,19 @@
         <v>188814</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>166233</v>
+        <v>166655</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>213669</v>
+        <v>212499</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1558938689669067</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1372497030750105</v>
+        <v>0.1375988612765322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1764154434968833</v>
+        <v>0.1754495568659095</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>2217872</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2803</v>
@@ -2498,19 +2498,19 @@
         <v>2186466</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7667759827088031</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4633</v>
@@ -2519,19 +2519,19 @@
         <v>4404338</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8476568765894112</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>126520</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100050</v>
+        <v>100365</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>160667</v>
+        <v>159645</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05396698606822983</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04267645667110068</v>
+        <v>0.04281085696620989</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06853256817191566</v>
+        <v>0.0680967557244594</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1104</v>
@@ -2569,19 +2569,19 @@
         <v>665039</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>625884</v>
+        <v>624039</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>702634</v>
+        <v>706936</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2332240172911969</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2194924858682374</v>
+        <v>0.2188454683047194</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2464080644920033</v>
+        <v>0.2479167220793488</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1192</v>
@@ -2590,19 +2590,19 @@
         <v>791559</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>744238</v>
+        <v>744803</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>842524</v>
+        <v>839609</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1523431234105887</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1432357382145817</v>
+        <v>0.1433444377931634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1621518057930006</v>
+        <v>0.1615907944470552</v>
       </c>
     </row>
     <row r="30">
